--- a/CS428-weekly-status-report3.xlsx
+++ b/CS428-weekly-status-report3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Desktop/CS428/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05C1A7D-C5B8-CD41-8C09-78F8A572719A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB3039-1575-6B45-8D00-3FBBF76CEE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11400" yWindow="500" windowWidth="18760" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1367,7 +1367,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:N16"/>
+      <selection activeCell="F12" sqref="F12:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="13">
-        <v>44900</v>
+        <v>44604</v>
       </c>
       <c r="I1" s="12"/>
       <c r="J1" s="11" t="s">
